--- a/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_18.qasm_rb2_archsize5_mini_dis.xlsx
+++ b/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_18.qasm_rb2_archsize5_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N395"/>
+  <dimension ref="A1:N396"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5964901447296143</v>
+        <v>0.00115513801574707</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.007011890411376953</v>
+        <v>0.0006058216094970703</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01137089729309082</v>
+        <v>0.02147984504699707</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(4, 3), (3, 3), (3, 4), (0, 4), (1, 3), (3, 2), (3, 0), (2, 0), (2, 2), (3, 1), (0, 3), (0, 2), (0, 0), (2, 1), (1, 2), (1, 0), (1, 1), (0, 1)]</t>
+          <t>[[4, 3], [3, 3], [3, 4], [0, 4], [1, 3], [3, 2], [3, 0], [2, 0], [2, 2], [3, 1], [0, 3], [0, 2], [0, 0], [2, 1], [1, 2], [1, 0], [1, 1], [0, 1]]</t>
         </is>
       </c>
     </row>
@@ -800,7 +800,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>[(4, 3), (3, 3), (3, 4), (0, 4), (1, 4), (3, 2), (3, 0), (2, 0), (2, 1), (1, 1), (1, 2), (0, 2), (0, 3), (1, 3), (0, 1), (2, 2), (1, 0), (3, 1)]</t>
+          <t>[[4, 3], [3, 3], [3, 4], [0, 4], [1, 4], [3, 2], [3, 0], [2, 0], [2, 1], [1, 1], [1, 2], [0, 2], [0, 3], [1, 3], [0, 1], [2, 2], [1, 0], [3, 1]]</t>
         </is>
       </c>
     </row>
@@ -1254,7 +1254,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>[(4, 3), (3, 3), (3, 4), (0, 4), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (2, 4)]</t>
+          <t>[[4, 3], [3, 3], [3, 4], [0, 4], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [2, 4]]</t>
         </is>
       </c>
     </row>
@@ -1771,7 +1771,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>[(4, 3), (3, 3), (2, 4), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (1, 3), (3, 4), (4, 4), (3, 2), (4, 1)]</t>
+          <t>[[4, 3], [3, 3], [2, 4], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [1, 3], [3, 4], [4, 4], [3, 2], [4, 1]]</t>
         </is>
       </c>
     </row>
@@ -2308,7 +2308,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>[(2, 4), (1, 4), (0, 3), (0, 2), (1, 1), (1, 0), (0, 0), (0, 1), (1, 2), (1, 3), (0, 4), (2, 3), (3, 4), (2, 2), (3, 2), (4, 4), (2, 1), (4, 1)]</t>
+          <t>[[2, 4], [1, 4], [0, 3], [0, 2], [1, 1], [1, 0], [0, 0], [0, 1], [1, 2], [1, 3], [0, 4], [2, 3], [3, 4], [2, 2], [3, 2], [4, 4], [2, 1], [4, 1]]</t>
         </is>
       </c>
     </row>
@@ -2802,7 +2802,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>[(2, 1), (1, 0), (0, 2), (0, 0), (1, 1), (0, 1), (1, 2), (2, 0), (2, 2), (1, 3), (3, 0), (1, 4), (0, 3), (2, 3), (3, 2), (4, 4), (3, 1), (4, 1)]</t>
+          <t>[[2, 1], [1, 0], [0, 2], [0, 0], [1, 1], [0, 1], [1, 2], [2, 0], [2, 2], [1, 3], [3, 0], [1, 4], [0, 3], [2, 3], [3, 2], [4, 4], [3, 1], [4, 1]]</t>
         </is>
       </c>
     </row>
@@ -3220,7 +3220,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>[(0, 2), (0, 1), (0, 0), (0, 3), (2, 0), (1, 3), (2, 2), (3, 0), (2, 3), (2, 4), (3, 1), (3, 4), (1, 4), (2, 1), (0, 4), (1, 0), (1, 1), (1, 2)]</t>
+          <t>[[0, 2], [0, 1], [0, 0], [0, 3], [2, 0], [1, 3], [2, 2], [3, 0], [2, 3], [2, 4], [3, 1], [3, 4], [1, 4], [2, 1], [0, 4], [1, 0], [1, 1], [1, 2]]</t>
         </is>
       </c>
     </row>
@@ -3415,110 +3415,120 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>Movement times</t>
+          <t>move_fidelity</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>55</v>
+        <v>0.996603017391642</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>parallel times</t>
+          <t>Movement times</t>
         </is>
       </c>
       <c r="B392" t="n">
-        <v>319</v>
+        <v>55</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>parallel times</t>
         </is>
       </c>
       <c r="B393" t="n">
-        <v>7</v>
+        <v>319</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>partitions</t>
         </is>
       </c>
       <c r="B394" t="n">
-        <v>0.6428329944610596</v>
+        <v>7</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B395" t="n">
+        <v>0.07325530052185059</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B395" t="inlineStr">
+      <c r="B396" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C395" t="inlineStr">
+      <c r="C396" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D395" t="inlineStr">
+      <c r="D396" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E395" t="inlineStr">
+      <c r="E396" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F395" t="inlineStr">
+      <c r="F396" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G395" t="inlineStr">
+      <c r="G396" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
+      <c r="H396" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I395" t="inlineStr">
+      <c r="I396" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J395" t="inlineStr">
+      <c r="J396" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K395" t="inlineStr">
+      <c r="K396" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L395" t="inlineStr">
+      <c r="L396" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M395" t="inlineStr">
+      <c r="M396" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N395" t="inlineStr">
+      <c r="N396" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>

--- a/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_18.qasm_rb2_archsize5_mini_dis.xlsx
+++ b/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_18.qasm_rb2_archsize5_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N396"/>
+  <dimension ref="A1:N402"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.00115513801574707</v>
+        <v>0.001136302947998047</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0006058216094970703</v>
+        <v>0.0006568431854248047</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02147984504699707</v>
+        <v>0.03618669509887695</v>
       </c>
     </row>
     <row r="8">
@@ -1781,11 +1781,6 @@
           <t>[9, 8]</t>
         </is>
       </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>[15, 0]</t>
-        </is>
-      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -1828,11 +1823,6 @@
           <t>[15, 2]</t>
         </is>
       </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>[9, 6]</t>
-        </is>
-      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -1847,11 +1837,6 @@
           <t>[17, 0]</t>
         </is>
       </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>[9, 7]</t>
-        </is>
-      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -1859,11 +1844,6 @@
           <t>[9, 8]</t>
         </is>
       </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>[15, 0]</t>
-        </is>
-      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -1906,11 +1886,6 @@
           <t>[15, 2]</t>
         </is>
       </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>[9, 6]</t>
-        </is>
-      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -1925,617 +1900,612 @@
           <t>[17, 0]</t>
         </is>
       </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>[9, 7]</t>
-        </is>
-      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>[10, 6]</t>
+          <t>[9, 7]</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>[11, 5]</t>
+          <t>[10, 6]</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>[12, 4]</t>
+          <t>[11, 5]</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>[13, 3]</t>
+          <t>[12, 4]</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>[14, 2]</t>
+          <t>[13, 3]</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>[15, 1]</t>
+          <t>[14, 2]</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>[16, 0]</t>
+          <t>[15, 1]</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>[10, 6]</t>
+          <t>[16, 0]</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>[11, 5]</t>
+          <t>[9, 7]</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>[12, 4]</t>
+          <t>[10, 6]</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>[13, 3]</t>
+          <t>[11, 5]</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>[14, 2]</t>
+          <t>[12, 4]</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>[15, 1]</t>
+          <t>[13, 3]</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>[16, 0]</t>
+          <t>[14, 2]</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>[8, 7]</t>
+          <t>[15, 1]</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>[10, 5]</t>
+          <t>[16, 0]</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>[11, 4]</t>
+          <t>[8, 7]</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>[15, 0]</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>[12, 3]</t>
+          <t>[9, 6]</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>[13, 2]</t>
+          <t>[10, 5]</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>[14, 1]</t>
+          <t>[11, 4]</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>[8, 7]</t>
+          <t>[12, 3]</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>[10, 5]</t>
+          <t>[13, 2]</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>[11, 4]</t>
+          <t>[14, 1]</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>[12, 3]</t>
+          <t>[8, 7]</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>[15, 0]</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>[13, 2]</t>
+          <t>[9, 6]</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>[14, 1]</t>
+          <t>[10, 5]</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>[8, 6]</t>
-        </is>
-      </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>[14, 0]</t>
+          <t>[11, 4]</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>[9, 5]</t>
+          <t>[12, 3]</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>[10, 4]</t>
+          <t>[13, 2]</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>[11, 3]</t>
+          <t>[14, 1]</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>[12, 2]</t>
+          <t>[8, 6]</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>[14, 0]</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>[13, 1]</t>
+          <t>[9, 5]</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>[8, 6]</t>
-        </is>
-      </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>[14, 0]</t>
+          <t>[10, 4]</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>[9, 5]</t>
+          <t>[11, 3]</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>[10, 4]</t>
+          <t>[12, 2]</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>[11, 3]</t>
+          <t>[13, 1]</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>[12, 2]</t>
+          <t>[8, 6]</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>[14, 0]</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>[13, 1]</t>
+          <t>[9, 5]</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>[3, [2, 3], [0, 2]]</t>
-        </is>
-      </c>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>[2, [2, 4], [0, 3]]</t>
-        </is>
-      </c>
-      <c r="C234" t="inlineStr">
-        <is>
-          <t>[16, [3, 2], [2, 1]]</t>
+          <t>[10, 4]</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>[11, [2, 1], [2, 3]]</t>
-        </is>
-      </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>[6, [1, 0], [0, 0]]</t>
+          <t>[11, 3]</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>[0, [4, 3], [2, 4]]</t>
-        </is>
-      </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>[7, [0, 2], [0, 1]]</t>
-        </is>
-      </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>[1, [3, 3], [1, 4]]</t>
+          <t>[12, 2]</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>[9, [0, 0], [1, 3]]</t>
-        </is>
-      </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>[12, [2, 2], [3, 4]]</t>
+          <t>[13, 1]</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>[13, [1, 3], [2, 2]]</t>
+          <t>[3, [2, 3], [0, 2]]</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>[2, [2, 4], [0, 3]]</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>[16, [3, 2], [2, 1]]</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>[14, [3, 4], [3, 2]]</t>
+          <t>[11, [2, 1], [2, 3]]</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>[5, [2, 0], [1, 0]]</t>
+          <t>[6, [1, 0], [0, 0]]</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>[8, [0, 1], [1, 2]]</t>
+          <t>[0, [4, 3], [2, 4]]</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>[7, [0, 2], [0, 1]]</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>[1, [3, 3], [1, 4]]</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>[10, [1, 1], [0, 4]]</t>
+          <t>[9, [0, 0], [1, 3]]</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>[12, [2, 2], [3, 4]]</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>[4, [1, 2], [1, 1]]</t>
+          <t>[13, [1, 3], [2, 2]]</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>[[2, 4], [1, 4], [0, 3], [0, 2], [1, 1], [1, 0], [0, 0], [0, 1], [1, 2], [1, 3], [0, 4], [2, 3], [3, 4], [2, 2], [3, 2], [4, 4], [2, 1], [4, 1]]</t>
+          <t>[14, [3, 4], [3, 2]]</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>[5, [2, 0], [1, 0]]</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>[7, 6]</t>
+          <t>[8, [0, 1], [1, 2]]</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>[8, 5]</t>
+          <t>[10, [1, 1], [0, 4]]</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>[9, 4]</t>
+          <t>[4, [1, 2], [1, 1]]</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>[10, 3]</t>
+          <t>[[2, 4], [1, 4], [0, 3], [0, 2], [1, 1], [1, 0], [0, 0], [0, 1], [1, 2], [1, 3], [0, 4], [2, 3], [3, 4], [2, 2], [3, 2], [4, 4], [2, 1], [4, 1]]</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>[11, 2]</t>
+          <t>[7, 6]</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>[12, 1]</t>
+          <t>[8, 5]</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>[13, 0]</t>
+          <t>[9, 4]</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>[7, 6]</t>
+          <t>[10, 3]</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>[8, 5]</t>
+          <t>[11, 2]</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>[9, 4]</t>
+          <t>[12, 1]</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>[10, 3]</t>
+          <t>[13, 0]</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>[11, 2]</t>
+          <t>[7, 6]</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>[12, 1]</t>
+          <t>[8, 5]</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>[13, 0]</t>
+          <t>[9, 4]</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>[7, 5]</t>
+          <t>[10, 3]</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>[8, 4]</t>
+          <t>[11, 2]</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>[9, 3]</t>
+          <t>[12, 1]</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>[10, 2]</t>
+          <t>[13, 0]</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>[11, 1]</t>
+          <t>[7, 5]</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>[12, 0]</t>
-        </is>
-      </c>
-      <c r="B263" t="inlineStr">
-        <is>
-          <t>[6, 5]</t>
+          <t>[8, 4]</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>[7, 5]</t>
+          <t>[9, 3]</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>[8, 4]</t>
+          <t>[10, 2]</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>[9, 3]</t>
+          <t>[11, 1]</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>[10, 2]</t>
+          <t>[12, 0]</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>[11, 1]</t>
+          <t>[7, 5]</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>[12, 0]</t>
-        </is>
-      </c>
-      <c r="B269" t="inlineStr">
-        <is>
-          <t>[6, 5]</t>
+          <t>[8, 4]</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>[7, 4]</t>
+          <t>[9, 3]</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>[8, 3]</t>
+          <t>[10, 2]</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>[9, 2]</t>
+          <t>[11, 1]</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>[10, 1]</t>
+          <t>[12, 0]</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>[11, 0]</t>
+          <t>[6, 5]</t>
         </is>
       </c>
     </row>
@@ -2577,958 +2547,1000 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>[6, 4]</t>
+          <t>[6, 5]</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>[7, 3]</t>
+          <t>[7, 4]</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>[8, 2]</t>
+          <t>[8, 3]</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>[9, 1]</t>
+          <t>[9, 2]</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>[10, 0]</t>
+          <t>[10, 1]</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>[6, 4]</t>
+          <t>[11, 0]</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>[7, 3]</t>
+          <t>[6, 4]</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>[8, 2]</t>
+          <t>[7, 3]</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>[9, 1]</t>
+          <t>[8, 2]</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>[10, 0]</t>
+          <t>[9, 1]</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>[5, 4]</t>
+          <t>[10, 0]</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>[6, 3]</t>
+          <t>[6, 4]</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>[7, 2]</t>
+          <t>[7, 3]</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>[8, 1]</t>
+          <t>[8, 2]</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>[9, 0]</t>
+          <t>[9, 1]</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>[5, 4]</t>
+          <t>[10, 0]</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>[6, 3]</t>
+          <t>[5, 4]</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>[7, 2]</t>
+          <t>[6, 3]</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>[8, 1]</t>
+          <t>[7, 2]</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>[9, 0]</t>
+          <t>[8, 1]</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>[3, [0, 2], [0, 0]]</t>
-        </is>
-      </c>
-      <c r="B300" t="inlineStr">
-        <is>
-          <t>[2, [0, 3], [0, 2]]</t>
+          <t>[9, 0]</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>[7, [0, 1], [2, 0]]</t>
+          <t>[5, 4]</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>[0, [2, 4], [2, 1]]</t>
+          <t>[6, 3]</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>[12, [3, 4], [0, 3]]</t>
+          <t>[7, 2]</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>[1, [1, 4], [1, 0]]</t>
+          <t>[8, 1]</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>[10, [0, 4], [3, 0]]</t>
+          <t>[9, 0]</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>[5, [1, 0], [0, 1]]</t>
+          <t>[3, [0, 2], [0, 0]]</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>[13, [2, 2], [2, 3]]</t>
+          <t>[2, [0, 3], [0, 2]]</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>[6, [0, 0], [1, 2]]</t>
+          <t>[7, [0, 1], [2, 0]]</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>[16, [2, 1], [3, 1]]</t>
-        </is>
-      </c>
-      <c r="B308" t="inlineStr">
-        <is>
-          <t>[8, [1, 2], [2, 2]]</t>
+          <t>[0, [2, 4], [2, 1]]</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>[11, [2, 3], [1, 4]]</t>
+          <t>[12, [3, 4], [0, 3]]</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>[[2, 1], [1, 0], [0, 2], [0, 0], [1, 1], [0, 1], [1, 2], [2, 0], [2, 2], [1, 3], [3, 0], [1, 4], [0, 3], [2, 3], [3, 2], [4, 4], [3, 1], [4, 1]]</t>
+          <t>[1, [1, 4], [1, 0]]</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>[5, 3]</t>
+          <t>[10, [0, 4], [3, 0]]</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>[6, 2]</t>
+          <t>[5, [1, 0], [0, 1]]</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>[13, [2, 2], [2, 3]]</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>[7, 1]</t>
+          <t>[6, [0, 0], [1, 2]]</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>[8, 0]</t>
+          <t>[16, [2, 1], [3, 1]]</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>[8, [1, 2], [2, 2]]</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>[5, 3]</t>
+          <t>[11, [2, 3], [1, 4]]</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>[6, 2]</t>
+          <t>[[2, 1], [1, 0], [0, 2], [0, 0], [1, 1], [0, 1], [1, 2], [2, 0], [2, 2], [1, 3], [3, 0], [1, 4], [0, 3], [2, 3], [3, 2], [4, 4], [3, 1], [4, 1]]</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>[7, 1]</t>
+          <t>[5, 3]</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>[8, 0]</t>
+          <t>[6, 2]</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>[4, 3]</t>
+          <t>[7, 1]</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>[5, 2]</t>
+          <t>[8, 0]</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>[6, 1]</t>
+          <t>[5, 3]</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>[7, 0]</t>
+          <t>[6, 2]</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>[8, 9]</t>
+          <t>[7, 1]</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>[4, 3]</t>
+          <t>[8, 0]</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>[5, 2]</t>
+          <t>[4, 3]</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>[6, 1]</t>
+          <t>[5, 2]</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>[7, 0]</t>
+          <t>[6, 1]</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>[9, 8]</t>
+          <t>[7, 0]</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>[4, 2]</t>
+          <t>[8, 9]</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>[5, 1]</t>
+          <t>[4, 3]</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>[6, 0]</t>
+          <t>[5, 2]</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>[8, 9]</t>
+          <t>[6, 1]</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>[7, 10]</t>
+          <t>[7, 0]</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>[4, 2]</t>
+          <t>[9, 8]</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>[5, 1]</t>
+          <t>[4, 2]</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>[6, 0]</t>
+          <t>[5, 1]</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>[10, 7]</t>
+          <t>[6, 0]</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>[3, 2]</t>
+          <t>[8, 9]</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>[4, 1]</t>
+          <t>[7, 10]</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>[5, 0]</t>
+          <t>[4, 2]</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>[7, 10]</t>
+          <t>[5, 1]</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>[6, 11]</t>
+          <t>[6, 0]</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>[3, 2]</t>
+          <t>[10, 7]</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>[4, 1]</t>
+          <t>[3, 2]</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>[5, 0]</t>
+          <t>[4, 1]</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>[11, 6]</t>
+          <t>[5, 0]</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>[3, 1]</t>
+          <t>[7, 10]</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>[4, 0]</t>
+          <t>[6, 11]</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>[6, 11]</t>
+          <t>[3, 2]</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>[5, 12]</t>
+          <t>[4, 1]</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>[3, 1]</t>
+          <t>[5, 0]</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>[4, 0]</t>
+          <t>[11, 6]</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>[12, 5]</t>
+          <t>[3, 1]</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>[0, [2, 1], [0, 2]]</t>
-        </is>
-      </c>
-      <c r="B354" t="inlineStr">
-        <is>
-          <t>[10, [3, 0], [3, 1]]</t>
+          <t>[4, 0]</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>[3, [0, 0], [0, 3]]</t>
-        </is>
-      </c>
-      <c r="B355" t="inlineStr">
-        <is>
-          <t>[11, [1, 4], [3, 4]]</t>
+          <t>[6, 11]</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>[15, [4, 4], [1, 0]]</t>
+          <t>[5, 12]</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>[12, [0, 3], [1, 4]]</t>
-        </is>
-      </c>
-      <c r="B357" t="inlineStr">
-        <is>
-          <t>[7, [2, 0], [3, 0]]</t>
-        </is>
-      </c>
-      <c r="C357" t="inlineStr">
-        <is>
-          <t>[5, [0, 1], [1, 3]]</t>
-        </is>
-      </c>
-      <c r="D357" t="inlineStr">
-        <is>
-          <t>[9, [1, 3], [2, 4]]</t>
+          <t>[3, 1]</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>[16, [3, 1], [1, 1]]</t>
+          <t>[4, 0]</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>[17, [4, 1], [1, 2]]</t>
-        </is>
-      </c>
-      <c r="B359" t="inlineStr">
-        <is>
-          <t>[14, [3, 2], [0, 4]]</t>
+          <t>[12, 5]</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>[4, [1, 1], [2, 0]]</t>
+          <t>[0, [2, 1], [0, 2]]</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>[6, [1, 2], [2, 2]]</t>
+          <t>[10, [3, 0], [3, 1]]</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>[13, [2, 3], [2, 1]]</t>
+          <t>[3, [0, 0], [0, 3]]</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>[2, [0, 2], [0, 0]]</t>
+          <t>[11, [1, 4], [3, 4]]</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>[1, [1, 0], [0, 1]]</t>
+          <t>[15, [4, 4], [1, 0]]</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>[8, [2, 2], [2, 3]]</t>
+          <t>[12, [0, 3], [1, 4]]</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>[7, [2, 0], [3, 0]]</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>[5, [0, 1], [1, 3]]</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>[9, [1, 3], [2, 4]]</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>[[0, 2], [0, 1], [0, 0], [0, 3], [2, 0], [1, 3], [2, 2], [3, 0], [2, 3], [2, 4], [3, 1], [3, 4], [1, 4], [2, 1], [0, 4], [1, 0], [1, 1], [1, 2]]</t>
+          <t>[16, [3, 1], [1, 1]]</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>[2, 1]</t>
+          <t>[17, [4, 1], [1, 2]]</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>[14, [3, 2], [0, 4]]</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>[3, 0]</t>
+          <t>[4, [1, 1], [2, 0]]</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>[6, [1, 2], [2, 2]]</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>[5, 12]</t>
+          <t>[13, [2, 3], [2, 1]]</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>[2, [0, 2], [0, 0]]</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>[4, 13]</t>
+          <t>[1, [1, 0], [0, 1]]</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>[2, 1]</t>
+          <t>[8, [2, 2], [2, 3]]</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>[3, 0]</t>
+          <t>[[0, 2], [0, 1], [0, 0], [0, 3], [2, 0], [1, 3], [2, 2], [3, 0], [2, 3], [2, 4], [3, 1], [3, 4], [1, 4], [2, 1], [0, 4], [1, 0], [1, 1], [1, 2]]</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>[13, 4]</t>
+          <t>[2, 1]</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>[2, 0]</t>
+          <t>[3, 0]</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>[4, 13]</t>
+          <t>[5, 12]</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>[3, 14]</t>
+          <t>[4, 13]</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>[2, 0]</t>
+          <t>[2, 1]</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>[14, 3]</t>
+          <t>[3, 0]</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>[1, 0]</t>
+          <t>[13, 4]</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>[3, 14]</t>
+          <t>[2, 0]</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>[2, 15]</t>
+          <t>[4, 13]</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>[1, 0]</t>
+          <t>[3, 14]</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>[15, 2]</t>
+          <t>[2, 0]</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>[2, 15]</t>
+          <t>[14, 3]</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>[1, 16]</t>
+          <t>[1, 0]</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>[0, 17]</t>
+          <t>[3, 14]</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>[16, 1]</t>
+          <t>[2, 15]</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>[17, 0]</t>
+          <t>[1, 0]</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>[1, 16]</t>
+          <t>[15, 2]</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>[0, 17]</t>
+          <t>[2, 15]</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Fidelity:</t>
-        </is>
-      </c>
-      <c r="B389" t="n">
-        <v>0.1770811095358246</v>
+          <t>[1, 16]</t>
+        </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>t_idle:</t>
-        </is>
-      </c>
-      <c r="B390" t="n">
-        <v>92956.46724835123</v>
+          <t>[0, 17]</t>
+        </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>move_fidelity</t>
-        </is>
-      </c>
-      <c r="B391" t="n">
-        <v>0.996603017391642</v>
+          <t>[16, 1]</t>
+        </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>Movement times</t>
-        </is>
-      </c>
-      <c r="B392" t="n">
-        <v>55</v>
+          <t>[17, 0]</t>
+        </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>parallel times</t>
-        </is>
-      </c>
-      <c r="B393" t="n">
-        <v>319</v>
+          <t>[1, 16]</t>
+        </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>partitions</t>
-        </is>
-      </c>
-      <c r="B394" t="n">
-        <v>7</v>
+          <t>[0, 17]</t>
+        </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>Fidelity:</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>0.07325530052185059</v>
+        <v>0.177078559586207</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
+          <t>t_idle:</t>
+        </is>
+      </c>
+      <c r="B396" t="n">
+        <v>92978.06724835122</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>move_fidelity</t>
+        </is>
+      </c>
+      <c r="B397" t="n">
+        <v>0.996603017391642</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Movement times</t>
+        </is>
+      </c>
+      <c r="B398" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>parallel times</t>
+        </is>
+      </c>
+      <c r="B399" t="n">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>partitions</t>
+        </is>
+      </c>
+      <c r="B400" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B401" t="n">
+        <v>0.07919001579284668</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B396" t="inlineStr">
+      <c r="B402" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C396" t="inlineStr">
+      <c r="C402" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D396" t="inlineStr">
+      <c r="D402" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E396" t="inlineStr">
+      <c r="E402" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F396" t="inlineStr">
+      <c r="F402" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G396" t="inlineStr">
+      <c r="G402" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
+      <c r="H402" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I396" t="inlineStr">
+      <c r="I402" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J396" t="inlineStr">
+      <c r="J402" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K396" t="inlineStr">
+      <c r="K402" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L396" t="inlineStr">
+      <c r="L402" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M396" t="inlineStr">
+      <c r="M402" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N396" t="inlineStr">
+      <c r="N402" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>
